--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Event</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Learn to build IoT Internet of Things Projects using IoT Course</t>
   </si>
   <si>
+    <t>get job as artificial intelligence developer</t>
+  </si>
+  <si>
+    <t>attend machine learning deep learning Webinar</t>
+  </si>
+  <si>
+    <t>seminar on data science and future</t>
+  </si>
+  <si>
+    <t>get javascript training for 2 weeks</t>
+  </si>
+  <si>
     <t>Matthew Martinez,Jasmine Brown,Sharon Mitchell,Stacy Jones</t>
   </si>
   <si>
-    <t>Joshua Calhoun,Antonio Nelson,Samantha Mcdowell</t>
+    <t>Joshua Calhoun,Samantha Mcdowell,John Phillips</t>
   </si>
   <si>
     <t>Michael Alvarado,Carol Larson</t>
@@ -50,6 +62,12 @@
   </si>
   <si>
     <t>Curtis Ortega,Brittney Copeland,Dennis Ramirez</t>
+  </si>
+  <si>
+    <t>Christian Odom</t>
+  </si>
+  <si>
+    <t>Tracy Alexander</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -408,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -416,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -424,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +450,33 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
